--- a/multimodel_inference/py3_v2/GA/multimodels_v2.xlsx
+++ b/multimodel_inference/py3_v2/GA/multimodels_v2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">pattern in script name</t>
   </si>
@@ -61,19 +61,25 @@
     <t xml:space="preserve">s12</t>
   </si>
   <si>
-    <t xml:space="preserve">split after ancestral size change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancestral size change, then split into two different sizes with asymmetrical migration, no size change after split</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">split after ancestral size change, 2 epochs post-split</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancestral size change, then split into two different sizes with asymmetrical migration, one size change after split</t>
+    <t xml:space="preserve">split with migration after ancestral size change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestral size change, then split into two different sizes with asymmetrical migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split withOUT migration after ancestral size change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestral size change, then split into two different sizes with NO migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one extra pop size + migration epoch (in s123, s103)</t>
   </si>
   <si>
     <t xml:space="preserve">sc</t>
@@ -92,15 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">split into two different sizes with asymmetric migration, then migration stops (and size changes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondary contact after ancestral size change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancestral size change, then split into two different sizes with NO migration, then one size change and start of asymmetrical migration</t>
   </si>
   <si>
     <t xml:space="preserve">IM</t>
@@ -196,18 +193,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,10 +270,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -302,10 +289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,96 +363,97 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
